--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E28C49-8FDB-4D3B-A07F-4D97B16BF52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FE400-5D1E-487B-AE73-C76A38844F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2E6B283-5AC4-48BC-9517-5F3DCD909BEA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
   <si>
     <t>操作手順</t>
     <rPh sb="0" eb="4">
@@ -221,22 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カナ(姓)ひらがな、漢字のみ入力可</t>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カナ(名)の最大入力文字数10文字</t>
     <rPh sb="3" eb="4">
       <t>ナ</t>
@@ -252,22 +236,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ(名)ひらがな、漢字のみ入力可</t>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -544,25 +512,6 @@
       <t>ショキチ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>クウラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所(市区町村)欄はテキストボックスで初期値は空欄</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
       <t>クウラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2171,6 +2120,193 @@
   <si>
     <t>各項目の入力値が空欄の
 アカウント登録画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※id1,2はアカウント登録確認画面とアカウント登録完了画面間の結合テスト
+3,4はアカウント登録確認画面とアカウント登録画面間のテスト</t>
+    <rPh sb="12" eb="18">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ(姓)カタカナのみ入力可</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ(名)カタカナのみ入力可</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナ以外を入力する</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG：全角文字が10文字入力できてしまうがエンターを押すと10文字以降は消去される</t>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG:　初期値が空欄になっている</t>
+    <rPh sb="4" eb="7">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG：全角文字が7文字入力できてしまうがエンターを押すと7文字以降は消去される</t>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG：全角文字が100文字入力できてしまうがエンターを押すと100文字以降は消去される</t>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所(市区町村)欄はテキストボックスで初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG：全角ハイフンが入力できない</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※id1～12の操作手順はアカウント登録画面で行い
+期待する動作はアカウント登録確認画面で確認できるid13,14は操作手順はアカウント登録確認画面で行い
+期待する動作はアカウント登録画面で確認できる</t>
+    <rPh sb="8" eb="12">
+      <t>ソウサテジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="38" eb="44">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2264,7 +2400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2300,6 +2436,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2615,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE41F2-F2C7-4DEA-A58F-913DAF3C4ECB}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2633,15 +2778,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="44.25" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -2662,10 +2807,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2678,13 +2823,19 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44782</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -2697,59 +2848,77 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44782</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="14">
+        <v>44782</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="14">
+        <v>44782</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2762,13 +2931,19 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="14">
+        <v>44782</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -2781,59 +2956,77 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44782</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="14">
+        <v>44782</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44782</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2846,83 +3039,107 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="14">
+        <v>44782</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44782</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="14">
+        <v>44782</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="14">
+        <v>44782</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -2930,167 +3147,215 @@
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44782</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44782</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="14">
+        <v>44782</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="14">
+        <v>44782</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="14">
+        <v>44782</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44782</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="14">
+        <v>44782</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="14">
+        <v>44782</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -3098,427 +3363,547 @@
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="14">
+        <v>44782</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="14">
+        <v>44782</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44782</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="14">
+        <v>44782</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44782</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="14">
+        <v>44782</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="14">
+        <v>44782</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="14">
+        <v>44782</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44782</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="14">
+        <v>44782</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="14">
+        <v>44782</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="14">
+        <v>44782</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="14">
+        <v>44782</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="14">
+        <v>44782</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="14">
+        <v>44782</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="14">
+        <v>44782</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="14">
+        <v>44782</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="14">
+        <v>44782</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="14">
+        <v>44782</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="14">
+        <v>44782</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H43" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -3539,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -3547,294 +3932,383 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="14">
+        <v>44782</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="14">
+        <v>44782</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="14">
+        <v>44782</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="14">
+        <v>44782</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="14">
+        <v>44782</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="14">
+        <v>44782</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="14">
+        <v>44782</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="14">
+        <v>44782</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="14">
+        <v>44782</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="14">
+        <v>44782</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="14">
+        <v>44782</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>12</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="14">
+        <v>44782</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>13</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="14">
+        <v>44782</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="14">
+        <v>44782</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="75" x14ac:dyDescent="0.4">
+      <c r="B65" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3844,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827025C-C273-4E89-B9B2-EC2C1C348A76}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3864,15 +4338,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -3893,272 +4367,272 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -4179,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -4187,19 +4661,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -4208,19 +4682,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -4229,19 +4703,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -4250,21 +4724,27 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4277,7 +4757,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4293,15 +4773,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -4322,20 +4802,62 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4356,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -4364,13 +4886,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4383,13 +4905,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FE400-5D1E-487B-AE73-C76A38844F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BD194-6A24-4C4D-88EF-7C5F5BDE210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2E6B283-5AC4-48BC-9517-5F3DCD909BEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
-    <sheet name="アカウント登録確認" sheetId="3" r:id="rId2"/>
-    <sheet name="アカウント登録完了" sheetId="4" r:id="rId3"/>
+    <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="163">
   <si>
     <t>操作手順</t>
     <rPh sb="0" eb="4">
@@ -676,20 +675,6 @@
   </si>
   <si>
     <t>機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1902,10 +1887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録画面の入力値をDBに新規登録</t>
     <rPh sb="5" eb="9">
       <t>トウロクガメン</t>
@@ -1989,16 +1970,6 @@
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナビゲーションバーのアカウント登録を押す</t>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2123,41 +2094,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※id1,2はアカウント登録確認画面とアカウント登録完了画面間の結合テスト
-3,4はアカウント登録確認画面とアカウント登録画面間のテスト</t>
-    <rPh sb="12" eb="18">
-      <t>トウロクカクニンガメン</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>トウロクカンリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="49" eb="53">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2306,6 +2242,177 @@
     </rPh>
     <rPh sb="70" eb="72">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xamppのMYSQLをstopした後に登録するボタンを
+押す</t>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト（アカウント登録確認画面）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト（アカウント登録完了画面）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト（アカウント登録画面）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト（アカウント登録画面）</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト（アカウント登録確認画面）</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト（アカウント登録完了画面）</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※期待する動作はアカウント登録完了画面上で確認</t>
+    <rPh sb="1" eb="3">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の入力値をDBに新規登録
+できない場合</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※id1,2はアカウント登録確認画面とアカウント登録完了画面間の結合テスト
+3,4はアカウント登録確認画面とアカウント登録画面間の結合テスト</t>
+    <rPh sb="12" eb="18">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2371,7 +2478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2394,13 +2501,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2445,6 +2563,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2760,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE41F2-F2C7-4DEA-A58F-913DAF3C4ECB}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2778,12 +2899,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="44.25" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -2807,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2824,17 +2945,17 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F3" s="14">
         <v>44782</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2848,20 +2969,20 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F4" s="14">
         <v>44782</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2869,26 +2990,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" s="14">
         <v>44782</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -2896,26 +3017,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F6" s="14">
         <v>44782</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2932,17 +3053,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F7" s="14">
         <v>44782</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2956,20 +3077,20 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F8" s="14">
         <v>44782</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2977,26 +3098,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F9" s="14">
         <v>44782</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -3007,23 +3128,23 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F10" s="14">
         <v>44782</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3040,17 +3161,17 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F11" s="14">
         <v>44782</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3058,26 +3179,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F12" s="14">
         <v>44782</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3085,26 +3206,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F13" s="14">
         <v>44782</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -3115,23 +3236,23 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F14" s="14">
         <v>44782</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3148,17 +3269,17 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F15" s="14">
         <v>44782</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3166,26 +3287,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F16" s="14">
         <v>44782</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3193,26 +3314,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F17" s="14">
         <v>44782</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3223,23 +3344,23 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F18" s="14">
         <v>44782</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3256,17 +3377,17 @@
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F19" s="14">
         <v>44782</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3280,20 +3401,20 @@
         <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F20" s="14">
         <v>44782</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3301,26 +3422,26 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F21" s="14">
         <v>44782</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3331,23 +3452,23 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F22" s="14">
         <v>44782</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3364,17 +3485,17 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F23" s="14">
         <v>44782</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3388,20 +3509,20 @@
         <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F24" s="14">
         <v>44782</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3409,26 +3530,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F25" s="14">
         <v>44782</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3439,23 +3560,23 @@
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F26" s="14">
         <v>44782</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3466,23 +3587,23 @@
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F27" s="14">
         <v>44782</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3499,17 +3620,17 @@
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F28" s="14">
         <v>44782</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3523,20 +3644,20 @@
         <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F29" s="14">
         <v>44782</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3544,26 +3665,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F30" s="14">
         <v>44782</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3574,23 +3695,23 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F31" s="14">
         <v>44782</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3598,26 +3719,26 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F32" s="14">
         <v>44782</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3625,26 +3746,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F33" s="14">
         <v>44782</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3661,17 +3782,17 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F34" s="14">
         <v>44782</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3685,20 +3806,20 @@
         <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F35" s="14">
         <v>44782</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3706,26 +3827,26 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="14">
         <v>44782</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -3733,26 +3854,26 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37" s="14">
         <v>44782</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3769,17 +3890,17 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F38" s="14">
         <v>44782</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3793,20 +3914,20 @@
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F39" s="14">
         <v>44782</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3814,26 +3935,26 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F40" s="14">
         <v>44782</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -3844,23 +3965,23 @@
         <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F41" s="14">
         <v>44782</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -3871,443 +3992,477 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F42" s="14">
         <v>44782</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H43" s="7"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="B49" s="5" t="s">
+    <row r="46" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B46" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>48</v>
+        <v>160</v>
+      </c>
+      <c r="F50" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F51" s="14">
         <v>44782</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F52" s="14">
         <v>44782</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F53" s="14">
         <v>44782</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F54" s="14">
         <v>44782</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F55" s="14">
         <v>44782</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F56" s="14">
         <v>44782</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F57" s="14">
         <v>44782</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F58" s="14">
         <v>44782</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F59" s="14">
         <v>44782</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="14">
-        <v>44782</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
-        <v>11</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="14">
-        <v>44782</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
-        <v>12</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="14">
-        <v>44782</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A63" s="1">
-        <v>13</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="14">
-        <v>44782</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
-        <v>14</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F64" s="14">
-        <v>44782</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="75" x14ac:dyDescent="0.4">
-      <c r="B65" s="12" t="s">
-        <v>155</v>
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +4473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827025C-C273-4E89-B9B2-EC2C1C348A76}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4336,14 +4491,14 @@
     <col min="9" max="9" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
-        <v>44</v>
+    <row r="1" spans="1:9" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>43</v>
@@ -4367,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -4375,549 +4530,619 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44782</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44782</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="14">
+        <v>44782</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14">
+        <v>44782</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="14">
+        <v>44782</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44782</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="14">
+        <v>44782</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44782</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="14">
+        <v>44782</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44782</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="14">
+        <v>44782</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="14">
+        <v>44782</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="14">
+        <v>44782</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28673F96-D5F9-4384-8435-03171D2F5461}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="26.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.4">
-      <c r="B1" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="I33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="14">
+        <v>44782</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BD194-6A24-4C4D-88EF-7C5F5BDE210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B3CD36-1989-4CCE-A028-99411659E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2E6B283-5AC4-48BC-9517-5F3DCD909BEA}"/>
   </bookViews>
@@ -2883,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE41F2-F2C7-4DEA-A58F-913DAF3C4ECB}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
